--- a/geohmount-plotly/sazonalidade-chuva/chuva_2019.xlsx
+++ b/geohmount-plotly/sazonalidade-chuva/chuva_2019.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="chuva_2019" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -16,6 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
+    <t>chuva_2019</t>
+  </si>
+  <si>
+    <t>estacao</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
     <t>Média Anual
 (2007 - 2019)</t>
   </si>
@@ -38,18 +50,6 @@
   <si>
     <t>SM 
 (E. Caparaó)</t>
-  </si>
-  <si>
-    <t>chuva_2019</t>
-  </si>
-  <si>
-    <t>estacao</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -68,15 +68,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -84,20 +90,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,32 +468,33 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -438,9 +504,9 @@
         <v>229.69271291633041</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>1189.3</v>
@@ -448,9 +514,9 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>1195.8</v>
@@ -458,9 +524,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -470,9 +536,9 @@
         <v>467.7888587831211</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>3055.4</v>
@@ -480,31 +546,31 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>1317.8615384615384</v>
-      </c>
-      <c r="D7" s="3">
-        <v>278.54209884396647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1590.1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>1590.1</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1317.8615384615384</v>
+      </c>
+      <c r="D8" s="3">
+        <v>278.54209884396647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>1171.5</v>

--- a/geohmount-plotly/sazonalidade-chuva/chuva_2019.xlsx
+++ b/geohmount-plotly/sazonalidade-chuva/chuva_2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>chuva_2019</t>
   </si>
@@ -26,10 +26,6 @@
   </si>
   <si>
     <t>sd</t>
-  </si>
-  <si>
-    <t>Média Anual
-(2007 - 2019)</t>
   </si>
   <si>
     <t xml:space="preserve">BM 
@@ -50,6 +46,18 @@
   <si>
     <t>SM 
 (E. Caparaó)</t>
+  </si>
+  <si>
+    <t>Média Anual - SB
+(2007 - 2019)</t>
+  </si>
+  <si>
+    <t>Média Anual - BM
+(2007 - 2019)</t>
+  </si>
+  <si>
+    <t>Média Anual - SM
+(2007 - 2019)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +476,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +502,7 @@
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -506,7 +514,7 @@
     </row>
     <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1189.3</v>
@@ -516,7 +524,7 @@
     </row>
     <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1195.8</v>
@@ -526,7 +534,7 @@
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -538,7 +546,7 @@
     </row>
     <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>3055.4</v>
@@ -548,29 +556,29 @@
     </row>
     <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1590.1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>1317.8615384615384</v>
+      </c>
+      <c r="D7" s="3">
+        <v>278.54209884396647</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>1317.8615384615384</v>
-      </c>
-      <c r="D8" s="3">
-        <v>278.54209884396647</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1590.1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>1171.5</v>

--- a/geohmount-plotly/sazonalidade-chuva/chuva_2019.xlsx
+++ b/geohmount-plotly/sazonalidade-chuva/chuva_2019.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>chuva_2019</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>estacao</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>sd</t>
@@ -58,6 +52,9 @@
   <si>
     <t>Média Anual - SM
 (2007 - 2019)</t>
+  </si>
+  <si>
+    <t>chuva</t>
   </si>
 </sst>
 </file>
@@ -473,118 +470,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1262.7384615384617</v>
+      </c>
+      <c r="C2" s="3">
+        <v>229.69271291633041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
-        <v>1262.7384615384617</v>
-      </c>
-      <c r="D2" s="3">
-        <v>229.69271291633041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1189.3</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>1195.8</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2837.5705044076922</v>
+      </c>
       <c r="C5" s="3">
-        <v>2837.5705044076922</v>
-      </c>
-      <c r="D5" s="3">
         <v>467.7888587831211</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>3055.4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1317.8615384615384</v>
+      </c>
       <c r="C7" s="3">
-        <v>1317.8615384615384</v>
-      </c>
-      <c r="D7" s="3">
         <v>278.54209884396647</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>1590.1</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>1171.5</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
